--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559D9742-6AEA-9B48-8868-F299FAE8CEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6706B36-1130-C845-A6B9-10A6E804A24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Title</t>
   </si>
@@ -66,13 +66,22 @@
   </si>
   <si>
     <t>Map all numbers to their position in the list. Iterate over each number and see if its compliment is in the map. Make sure to check it's not the same number.</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Iterate over the list finding the lowest given price and finding the highest profit at the same time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +100,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +158,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -457,16 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="135.6640625" customWidth="1"/>
@@ -496,7 +514,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -510,6 +528,26 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6706B36-1130-C845-A6B9-10A6E804A24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49819246-4842-4743-8C5C-7B1CBCA0994D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Iterate over the list finding the lowest given price and finding the highest profit at the same time.</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Array, HashMap/Set</t>
+  </si>
+  <si>
+    <t>Create a set. Iterate over the list checking if the number is already in the set. If not, add it to the set. If it is, return true.</t>
   </si>
 </sst>
 </file>
@@ -475,17 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="135.6640625" customWidth="1"/>
   </cols>
@@ -550,6 +559,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>217</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49819246-4842-4743-8C5C-7B1CBCA0994D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D8343-F1B6-E247-A9D1-7821E7DE761A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -84,13 +84,22 @@
   </si>
   <si>
     <t>Create a set. Iterate over the list checking if the number is already in the set. If not, add it to the set. If it is, return true.</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Iterate over the list in both directions while calculating the product of all numbers to the left and right of it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +123,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +148,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,12 +174,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,11 +189,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,6 +603,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>238</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D8343-F1B6-E247-A9D1-7821E7DE761A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E871533-AB67-CB43-B5C8-0CF4DA459333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Iterate over the list in both directions while calculating the product of all numbers to the left and right of it.</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Iterate over the list calculating the sum. If the sum is positive, add this number to the sum. If the sum is negative, set the num to this number. Calculate the max between each sum.</t>
   </si>
 </sst>
 </file>
@@ -508,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +526,7 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="135.6640625" customWidth="1"/>
+    <col min="6" max="6" width="149.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -623,6 +629,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E871533-AB67-CB43-B5C8-0CF4DA459333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34779FEB-41E6-2745-81DE-42E549034F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Iterate over the list calculating the sum. If the sum is positive, add this number to the sum. If the sum is negative, set the num to this number. Calculate the max between each sum.</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Iterate over the list maintaining the min and max vales between the number itself and its products with min and max. Return the greatest max.</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,6 +655,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>152</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34779FEB-41E6-2745-81DE-42E549034F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E89E0F9-59E1-954C-8BFA-066C97D148B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>Iterate over the list maintaining the min and max vales between the number itself and its products with min and max. Return the greatest max.</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>O(log n)</t>
+  </si>
+  <si>
+    <t>Binary search keeping in mind the rotation point in the array. Determine if the middle is part of the "left" or "right" side of the array.</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Array, Two iters</t>
+  </si>
+  <si>
+    <t>Same idea as a binary search with no middle. Move the right and left iters in increments of 1 based on if the sum of those iters is less or greater than the target.</t>
   </si>
 </sst>
 </file>
@@ -520,16 +541,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="149.1640625" customWidth="1"/>
@@ -675,6 +696,46 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>152</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E89E0F9-59E1-954C-8BFA-066C97D148B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EEE93-E1D5-5E43-95F1-4A41E7B6A5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Same idea as a binary search with no middle. Move the right and left iters in increments of 1 based on if the sum of those iters is less or greater than the target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Sum </t>
+  </si>
+  <si>
+    <t>Sort, Two iters</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Sort the array, then iterate over it performing Two Sum II on the rest of the list to the right of the iter. Make sure to skip all duplicates.</t>
   </si>
 </sst>
 </file>
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,7 +710,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -734,6 +746,26 @@
       </c>
       <c r="F9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EEE93-E1D5-5E43-95F1-4A41E7B6A5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2FE2AF-1E19-F040-AA9B-64DA61ECA576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -122,22 +122,31 @@
     <t>Two Sum II - Input Array Is Sorted</t>
   </si>
   <si>
-    <t>Array, Two iters</t>
-  </si>
-  <si>
     <t>Same idea as a binary search with no middle. Move the right and left iters in increments of 1 based on if the sum of those iters is less or greater than the target.</t>
   </si>
   <si>
     <t xml:space="preserve">3Sum </t>
   </si>
   <si>
-    <t>Sort, Two iters</t>
-  </si>
-  <si>
     <t>O(n^2)</t>
   </si>
   <si>
     <t>Sort the array, then iterate over it performing Two Sum II on the rest of the list to the right of the iter. Make sure to skip all duplicates.</t>
+  </si>
+  <si>
+    <t>Array, Sliding window</t>
+  </si>
+  <si>
+    <t>Sort, Sliding window</t>
+  </si>
+  <si>
+    <t>Baseball Game</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Push all the values to a stack and modify them based on the given operations.</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -753,19 +762,39 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>682</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2FE2AF-1E19-F040-AA9B-64DA61ECA576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51638937-0703-EA44-BB9B-6B9560F40E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Title</t>
   </si>
@@ -147,13 +147,19 @@
   </si>
   <si>
     <t>Push all the values to a stack and modify them based on the given operations.</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Only works on sorted arrays. Sliding window across entire array, calculating the middle between the left/right iters. Move left/right iter based on the middle value.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,8 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +220,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
   </fills>
@@ -228,13 +246,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,8 +264,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Extra" xfId="4" xr:uid="{37FE978E-75C6-F943-AD7D-18755893BBB0}"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -562,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,6 +818,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51638937-0703-EA44-BB9B-6B9560F40E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE3166-EF43-B74B-A7E9-5F7166EEAA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -153,13 +153,28 @@
   </si>
   <si>
     <t>Only works on sorted arrays. Sliding window across entire array, calculating the middle between the left/right iters. Move left/right iter based on the middle value.</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>BFS, Hash table</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Map a word pattern to a list of words. A word pattern is each word with each letter replaced with a *. This creates a hashmap to represent the words and their neighbors. Then do a BFS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,13 +214,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +242,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -246,14 +273,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,10 +292,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Extra" xfId="4" xr:uid="{37FE978E-75C6-F943-AD7D-18755893BBB0}"/>
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Extra" xfId="5" xr:uid="{37FE978E-75C6-F943-AD7D-18755893BBB0}"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -583,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +625,7 @@
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="149.1640625" customWidth="1"/>
+    <col min="6" max="6" width="153.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -835,6 +865,26 @@
         <v>39</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>127</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE3166-EF43-B74B-A7E9-5F7166EEAA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF582B8-124D-E544-94D5-406FF7BBC86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Map a word pattern to a list of words. A word pattern is each word with each letter replaced with a *. This creates a hashmap to represent the words and their neighbors. Then do a BFS.</t>
+  </si>
+  <si>
+    <t>Breadth-First Search</t>
+  </si>
+  <si>
+    <t>BFS, Hashmap(?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a way to link nodes together if they aren't already, usually through a hashmap. Then create a list of visited nodes and a queue of nodes to check. Iterate through the entire queue while the queue still has elements and add all the nodes neighbors to check if they haven't already been visited. </t>
   </si>
 </sst>
 </file>
@@ -281,7 +290,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +303,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -613,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,6 +897,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF582B8-124D-E544-94D5-406FF7BBC86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52146CC9-E72B-BD48-9471-42146944C4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Title</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t xml:space="preserve">Find a way to link nodes together if they aren't already, usually through a hashmap. Then create a list of visited nodes and a queue of nodes to check. Iterate through the entire queue while the queue still has elements and add all the nodes neighbors to check if they haven't already been visited. </t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
+  </si>
+  <si>
+    <t>Sliding window. Update max with and increment the iter with the smallest height value.</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,6 +920,26 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52146CC9-E72B-BD48-9471-42146944C4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39003112-B1B2-1E44-A258-918B20CDC9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Title</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Sliding window. Update max with and increment the iter with the smallest height value.</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Bitwise</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>x &amp; y &lt;&lt; 1 the numbers to find their carry. x ^ y to find the sum without the carry. Repeat adding the carry to the sum until there is no carry.</t>
   </si>
 </sst>
 </file>
@@ -634,9 +646,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -940,6 +952,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>371</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Git/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39003112-B1B2-1E44-A258-918B20CDC9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720CEC3-6A7C-0548-8229-2E822FBE2236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00BFEBED-41FD-4445-A067-D74A6DA3447C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Title</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>x &amp; y &lt;&lt; 1 the numbers to find their carry. x ^ y to find the sum without the carry. Repeat adding the carry to the sum until there is no carry.</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Bit mask</t>
+  </si>
+  <si>
+    <t>Create a mask starting at 1. For every bit in the value, add 1 to the count if mask &amp; value &gt; 0. Left shift the mask by 1.</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F48452-0640-744E-B61C-1E2914A6E373}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,6 +981,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>191</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
